--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2135406.045499812</v>
+        <v>-2137403.718512658</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>90.48094076586136</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>159.5047421849668</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>274.8434355091191</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.43262708185664</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>28.91375651718144</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.92633541007659</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>57.49520316789302</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>283.2502426857016</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>87.43167419767042</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>86.11283245544999</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>135.0393428231427</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>127.2629096606665</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.18937547121065</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>144.0409689064678</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.0382470510462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.40955656862257</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>173.1405848677664</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.095253737059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
         <v>42.28735533463131</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T25" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2773,7 +2773,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,19 +3715,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1290.529895131826</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C2" t="n">
-        <v>921.5673781914143</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D2" t="n">
-        <v>563.3016795846638</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>563.3016795846638</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.004500351779</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2262.369833323842</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2008.608047961934</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1677.545160618363</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1324.776505348249</v>
       </c>
       <c r="X2" t="n">
-        <v>1680.669227107638</v>
+        <v>1324.776505348249</v>
       </c>
       <c r="Y2" t="n">
-        <v>1290.529895131826</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>282.9757387303721</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>113.9759384687045</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691491</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2667.943276354403</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.765788668573</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2273.131121640636</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2273.131121640636</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2273.131121640636</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1920.362466370522</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1546.896708109442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.741202187451</v>
+        <v>1156.75737613363</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>315.4238416165515</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>157.6754690490816</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>211.4036268380754</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>211.4036268380754</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1464.687040303176</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1464.687040303176</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1106.421341696425</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>720.6330890981808</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>309.6471843085732</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>295.7237802471641</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1851.286880367297</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>348.0202652891861</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>348.0202652891861</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>348.0202652891861</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429513</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="W13" t="n">
-        <v>354.6908600059907</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X13" t="n">
-        <v>126.7013091079734</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.6879222525852</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>929.7149170746092</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8780707889955</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y16" t="n">
-        <v>566.6879222525852</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>303.1196361220957</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>303.1196361220957</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>303.1196361220957</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>155.2065425397026</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>155.2065425397026</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>155.2065425397026</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5704,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X19" t="n">
-        <v>303.1196361220957</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.1196361220957</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188996</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>420.034083581939</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>420.034083581939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D25" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6142,7 +6142,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6178,7 +6178,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V25" t="n">
         <v>1304.027639859417</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,25 +6248,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,16 +6291,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6361,16 +6361,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6379,7 +6379,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6418,7 +6418,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,16 +6643,16 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6695,52 +6695,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614725</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,13 +6871,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7084,22 +7084,22 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7154,52 +7154,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,13 +7722,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
         <v>891.4406401619858</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
@@ -7795,16 +7795,16 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>316.3951049758501</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>254.1170316418997</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>14.9109706240047</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>124.8747336631615</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.3952778808841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>142.1963834921096</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.546406301048563</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>91.50427179891355</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>52.56907052127079</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.48939961503578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1356179.194060527</v>
+        <v>1356179.194060528</v>
       </c>
     </row>
     <row r="8">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782022</v>
+        <v>18391.92434782021</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688544</v>
@@ -26332,25 +26332,25 @@
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.63377422313</v>
+        <v>99193.63377422316</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26427,31 +26427,31 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753628.6667043568</v>
+        <v>-753842.0786942354</v>
       </c>
       <c r="C6" t="n">
         <v>-210250.0825327232</v>
@@ -26528,22 +26528,22 @@
         <v>-210250.0825327232</v>
       </c>
       <c r="E6" t="n">
-        <v>-605512.6410947347</v>
+        <v>-605610.1002207068</v>
       </c>
       <c r="F6" t="n">
-        <v>-80352.60461783868</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="G6" t="n">
-        <v>-80352.60461783866</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="H6" t="n">
-        <v>-80352.60461783868</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="I6" t="n">
         <v>-162030.0925744588</v>
       </c>
       <c r="J6" t="n">
-        <v>-283947.7996633392</v>
+        <v>-283947.7996633391</v>
       </c>
       <c r="K6" t="n">
         <v>-107524.5804707463</v>
@@ -26552,7 +26552,7 @@
         <v>-107524.5804707463</v>
       </c>
       <c r="M6" t="n">
-        <v>-242325.5957045835</v>
+        <v>-242325.5957045834</v>
       </c>
       <c r="N6" t="n">
         <v>-162030.0925744588</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,40 +26738,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>69.80574112245748</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.88766516934993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.7382617599385</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>96.25160475629423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.56464605763026</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.311603245977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>77.47041862444522</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.69861478456102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.48359897777897</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>236.4910985666867</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>81.13398864317784</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>89.99576263494157</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,7 +36528,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414414</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
